--- a/Tab_4c_Linkzuordnung.xlsx
+++ b/Tab_4c_Linkzuordnung.xlsx
@@ -800,12 +800,12 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>L_BMEL_2</t>
+          <t>L_BMEL_3</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -2405,17 +2405,17 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>L_BMZ_2</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
+          <t>Q_GIZ</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
           <t>Q_CEVAL</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_27</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -4438,27 +4438,27 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
+          <t>L_RDB_2</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>L_RDB_3</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
           <t>Q_BBSR</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="G38" s="4" t="inlineStr">
         <is>
           <t>Q_JHT</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G38" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
@@ -4545,27 +4545,27 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
+          <t>L_RDB_2</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>L_RDB_3</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
           <t>Q_BBSR</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>Q_JHT</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G39" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -4973,12 +4973,12 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -5187,32 +5187,32 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t/>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t/>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t/>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t/>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t/>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_25</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Q_BFN</t>
+          <t>L_BFN_1</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">

--- a/Tab_4c_Linkzuordnung.xlsx
+++ b/Tab_4c_Linkzuordnung.xlsx
@@ -693,17 +693,17 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
+          <t>Q_JKI</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Q_UG</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
           <t>L_BMEL_1</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Q_JKI</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Q_UG</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -800,17 +800,17 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
+          <t>L_DSTTS_7</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
           <t>L_ERSTT_12</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>L_BMEL_3</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2833,17 +2833,17 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
+          <t>L_AGEB_1</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>L_LAK_1</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>L_AGEB_1</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -2945,12 +2945,12 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
+          <t>Q_BMWK</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
           <t>L_LAK_2</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
+          <t>Q_BMWK</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
           <t>L_LAK_3</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -4652,12 +4652,12 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
+          <t>L_IFEU_1</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
           <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
+          <t>L_IFEU_1</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
           <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
+          <t>Q_BMZ</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
           <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
